--- a/Lab3/excele/Grafy_zadania.xlsx
+++ b/Lab3/excele/Grafy_zadania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szcze\Desktop\AISD\AiSD\Lab3\excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11F793-E8D1-47C2-BB7D-7B90CD899E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46F0B9A-3A3B-4D24-8DED-A6E77903B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{982BBA65-82D4-4D63-BD81-13B1E8AB87C0}"/>
+    <workbookView xWindow="-23148" yWindow="4272" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{982BBA65-82D4-4D63-BD81-13B1E8AB87C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadanie_1" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>331472</xdr:colOff>
+      <xdr:colOff>339092</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>145501</xdr:rowOff>
+      <xdr:rowOff>149311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE0C27-1A36-4D1C-8FAC-367BAFF50F36}">
   <dimension ref="G2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="12">
         <v>6</v>
@@ -2247,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="13">
         <v>6</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="13">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3">
         <v>6</v>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="7">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" s="3">
         <v>6</v>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
